--- a/Design/config/CityDevConfig.xlsx
+++ b/Design/config/CityDevConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$K$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -195,6 +195,34 @@
   </si>
   <si>
     <t>发展商业，提升金钱收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升最大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,21 +618,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="3" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,16 +655,22 @@
         <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -653,16 +690,22 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -682,16 +725,22 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -711,16 +760,22 @@
         <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>21001</v>
       </c>
@@ -739,17 +794,23 @@
       <c r="F5" s="4">
         <v>300</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>21002</v>
       </c>
@@ -768,23 +829,29 @@
       <c r="F6" s="4">
         <v>200</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A5:Q43">

--- a/Design/config/CityDevConfig.xlsx
+++ b/Design/config/CityDevConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -190,14 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发展农业，提升粮食产量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发展商业，提升金钱收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>提升值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,6 +215,141 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加固城墙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展农业,提升粮食产量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展商业,提升金钱收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升城防</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix2.mp4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeadShip|Str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道巡逻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升治安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走访</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜集人才和宝物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.mp4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm|Inte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train2.mp4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升军队士气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secure.mp4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengbing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhengbing.mp4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeadShip|Charm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升士兵数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,10 +782,10 @@
         <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
@@ -690,10 +817,10 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -725,10 +852,10 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -760,10 +887,10 @@
         <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
@@ -786,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -821,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
@@ -846,12 +973,183 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>21003</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>21004</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>21005</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>21006</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>21007</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4">
+        <v>200</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A5:Q43">
